--- a/misc/tables.xlsx
+++ b/misc/tables.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nishimoto/Documents/github/dynamic_r_index/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A9390F-5516-EA4E-B785-CBCFF561CECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A9FF16-683D-9747-AF62-8CC45359C62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32880" yWindow="8000" windowWidth="28300" windowHeight="16900" xr2:uid="{543DC74A-6510-E544-B614-BB7FAB1B2E7F}"/>
+    <workbookView xWindow="38620" yWindow="8040" windowWidth="28300" windowHeight="16900" xr2:uid="{543DC74A-6510-E544-B614-BB7FAB1B2E7F}"/>
   </bookViews>
   <sheets>
     <sheet name="r-index" sheetId="1" r:id="rId1"/>
     <sheet name="fm-index" sheetId="2" r:id="rId2"/>
+    <sheet name="Query" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="79">
   <si>
     <t>Memory</t>
     <phoneticPr fontId="1"/>
@@ -123,10 +124,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>O(n log (M/n)) bytes</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">Add the values in sequence P to S as the last values </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -187,26 +184,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>S.count_query(P)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>S.locate_locate(P)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>S.backward_search(P)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>O(m log n) time</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>O((m+occ) log n) time</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Return the number of the occurrences of P in T</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -219,15 +196,163 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>S.insert_string(i, P)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>average O((m + L_{avg})log n) time</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>S.delete_string(i, m)</t>
+    <t>Parameter 1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Parameter 2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Command</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INSERT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DELETE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>COUNT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LOCATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Delete the substring T[i..i+m-1] from T</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Return the occurrence positions of P in T</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Compute the sum of the occurrence positions of P in T</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Insert the given string P into T at position i</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LOCATE_SUM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Print T and its BWT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PRINT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T.insert_string(i, P)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T.delete_string(i, m)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T.count_query(P)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T.backward_search(P)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Operation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dynamic r-index</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dynamic FM-index</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Build the index for T by processing L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>::build_from_BWT(L)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>O(n log σ log n)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>average O((m + L_{avg})log σ log n)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">O(r log n) </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">O(n log σ + (n/s) log n) </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Working space (bytes)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">O(m log σ log n) </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>O(m log σ log n)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>O((m+s・occ) log σ log n)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>O((m+occ) log σ log n)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Insert P  into T at position i </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Delete substring T[i..i+m-1] from T</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T.locate_query(P)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -618,108 +743,143 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCCEA842-7D8F-9345-A414-7D6BF5182E4B}">
-  <dimension ref="A3:D11"/>
+  <dimension ref="A3:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="46" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>0</v>
+      <c r="B4" t="s">
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
+      <c r="A6" t="s">
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2"/>
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
+      <c r="A8" t="s">
+        <v>59</v>
       </c>
       <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" t="s">
         <v>37</v>
       </c>
-      <c r="C8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2"/>
-      <c r="B9" t="s">
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" t="s">
         <v>38</v>
       </c>
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2"/>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -733,7 +893,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection sqref="A1:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -777,7 +937,7 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -819,13 +979,13 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -837,7 +997,7 @@
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -851,7 +1011,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -863,7 +1023,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -875,55 +1035,55 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -934,4 +1094,147 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D19FC4-4481-5C47-BD91-50789AAA369E}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/misc/tables.xlsx
+++ b/misc/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nishimoto/Documents/github/dynamic_r_index/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A9FF16-683D-9747-AF62-8CC45359C62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72B1A18-A0FA-C84A-BD64-738C9DCE8433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38620" yWindow="8040" windowWidth="28300" windowHeight="16900" xr2:uid="{543DC74A-6510-E544-B614-BB7FAB1B2E7F}"/>
   </bookViews>
@@ -399,15 +399,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -746,7 +743,7 @@
   <dimension ref="A3:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1098,7 +1095,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D19FC4-4481-5C47-BD91-50789AAA369E}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
@@ -1140,7 +1137,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>43</v>
       </c>
       <c r="B3" t="s">
@@ -1154,7 +1151,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>44</v>
       </c>
       <c r="B4" t="s">
@@ -1168,7 +1165,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>45</v>
       </c>
       <c r="B5" t="s">
@@ -1182,7 +1179,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>54</v>
       </c>
       <c r="B6" t="s">
@@ -1196,7 +1193,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>56</v>
       </c>
       <c r="B7" t="s">
@@ -1208,30 +1205,6 @@
       <c r="D7" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
